--- a/PhoneType/国际手机型号对应表.xlsx
+++ b/PhoneType/国际手机型号对应表.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/Downloads/数据分析/4月/国际/注册地/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/PhoneType/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8140" yWindow="6620" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表4" sheetId="4" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -967,7 +967,7 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
